--- a/data/trans_orig/P14C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819131AF-629F-44EB-9B2A-23B83C84F68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26E1275-3085-44DE-8399-B3BCAF8FC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4198B0E4-DDE6-4A12-B12D-1031D381B3E9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A07FCA38-FCCB-40A0-8B36-CA4D5200BEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -107,25 +107,25 @@
     <t>62,61%</t>
   </si>
   <si>
-    <t>16,04%</t>
+    <t>24,53%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>28,85%</t>
+    <t>29,56%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>83,96%</t>
+    <t>75,47%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>71,15%</t>
+    <t>70,44%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -140,79 +140,79 @@
     <t>40,78%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>25,35%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>35,4%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>29,2%</t>
+    <t>29,21%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -221,64 +221,64 @@
     <t>52,01%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>55,46%</t>
   </si>
   <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>39,29%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>40,15%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -287,10 +287,10 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -299,241 +299,241 @@
     <t>63,69%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>70,99%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>25,25%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>6,53%</t>
+    <t>5,9%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -948,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9E3EBF-E285-4132-9BF4-26340FA84C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F5FEC-015F-4F15-B409-D7880EC7ED72}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26E1275-3085-44DE-8399-B3BCAF8FC953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0174B7-8A61-40E0-A062-B6B35E865923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A07FCA38-FCCB-40A0-8B36-CA4D5200BEEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7B1B252-BB0C-49CF-9AE6-067EA6B1CE53}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="167">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la hipertensión en 2016 (Tasa respuesta: 15,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -107,25 +107,25 @@
     <t>62,61%</t>
   </si>
   <si>
-    <t>24,53%</t>
+    <t>23,53%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>29,56%</t>
+    <t>25,48%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>75,47%</t>
+    <t>76,47%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>70,44%</t>
+    <t>74,52%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -140,238 +140,235 @@
     <t>40,78%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>25,35%</t>
   </si>
   <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -380,160 +377,157 @@
     <t>82,19%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -948,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F5FEC-015F-4F15-B409-D7880EC7ED72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC454A-95EC-4300-B594-8EA4780CE6A7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1977,13 +1971,13 @@
         <v>66843</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1992,13 @@
         <v>2270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2013,13 +2007,13 @@
         <v>7685</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -2028,13 +2022,13 @@
         <v>9955</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2084,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2102,13 +2096,13 @@
         <v>223119</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -2117,13 +2111,13 @@
         <v>328315</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>512</v>
@@ -2132,13 +2126,13 @@
         <v>551435</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2147,13 @@
         <v>38029</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -2168,13 +2162,13 @@
         <v>52914</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2183,13 +2177,13 @@
         <v>90943</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2198,13 @@
         <v>10313</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2219,13 +2213,13 @@
         <v>14779</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -2234,13 +2228,13 @@
         <v>25092</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,13 +2302,13 @@
         <v>358409</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>415</v>
@@ -2323,13 +2317,13 @@
         <v>487418</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>775</v>
@@ -2338,13 +2332,13 @@
         <v>845827</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2353,13 @@
         <v>127036</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>93</v>
@@ -2374,13 +2368,13 @@
         <v>105197</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>212</v>
@@ -2389,13 +2383,13 @@
         <v>232233</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2404,13 @@
         <v>24320</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -2425,13 +2419,13 @@
         <v>24467</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M30" s="7">
         <v>45</v>
@@ -2440,13 +2434,13 @@
         <v>48787</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2496,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
